--- a/000.커리큐럼/9.프론트엔드 웹 개발 1회차_21.09.02~21.10.27_출력 및 게시용 시간표.xlsx
+++ b/000.커리큐럼/9.프론트엔드 웹 개발 1회차_21.09.02~21.10.27_출력 및 게시용 시간표.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\KNG-FED211\000.커리큐럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12285"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">시간표!$1:$8</definedName>
     <definedName name="Z_BAA04080_A6CA_4C31_AEC8_54600754D5B8_.wvu.PrintArea" localSheetId="0" hidden="1">시간표!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -329,7 +334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="00&quot;:&quot;00&quot;~&quot;00&quot;:&quot;00"/>
     <numFmt numFmtId="177" formatCode="##&quot;회차&quot;"/>
@@ -337,7 +342,7 @@
     <numFmt numFmtId="179" formatCode="##&quot;일차&quot;"/>
     <numFmt numFmtId="180" formatCode="yyyy\.mm\.dd\(aaa\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,16 +1063,97 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,87 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1505,7 +1510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1519,11 +1524,9 @@
   </sheetPr>
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A196" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="2.625" style="11" customWidth="1"/>
@@ -1537,7 +1540,7 @@
     <col min="14" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="1" spans="2:10" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1546,91 +1549,91 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="30" customHeight="1">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="70" t="s">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1">
-      <c r="B4" s="70" t="s">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B5" s="70" t="s">
+    <row r="5" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1">
-      <c r="B6" s="75" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="76"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-    </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B7" s="79" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="15">
         <v>803</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1640,11 +1643,11 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="13">
@@ -1667,9 +1670,9 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="25" t="s">
         <v>36</v>
       </c>
@@ -1686,8 +1689,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="64"/>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="58"/>
       <c r="C11" s="27" t="s">
         <v>9</v>
       </c>
@@ -1702,11 +1705,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="65" t="s">
+    <row r="12" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1717,11 +1720,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="56">
+    <row r="13" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="48">
         <v>1</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="26"/>
@@ -1734,9 +1737,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="57"/>
-      <c r="C14" s="49"/>
+    <row r="14" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
@@ -1747,11 +1750,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="56">
+    <row r="15" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="48">
         <v>2</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="26"/>
@@ -1764,9 +1767,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="57"/>
-      <c r="C16" s="49"/>
+    <row r="16" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="49"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
@@ -1777,11 +1780,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="56">
+    <row r="17" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="48">
         <v>3</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="26"/>
@@ -1794,9 +1797,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="57"/>
-      <c r="C18" s="49"/>
+    <row r="18" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="49"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -1807,35 +1810,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="56"/>
-      <c r="C19" s="48" t="s">
+    <row r="19" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="48"/>
+      <c r="C19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="58" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="57"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="46">
+    <row r="20" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+    </row>
+    <row r="21" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="52">
         <v>4</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="26"/>
@@ -1848,9 +1851,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="47"/>
-      <c r="C22" s="49"/>
+    <row r="22" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
@@ -1861,11 +1864,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="46">
+    <row r="23" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="52">
         <v>5</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="26"/>
@@ -1878,9 +1881,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="47"/>
-      <c r="C24" s="49"/>
+    <row r="24" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="53"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
@@ -1891,11 +1894,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="46">
+    <row r="25" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="52">
         <v>6</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="26"/>
@@ -1908,9 +1911,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="47"/>
-      <c r="C26" s="49"/>
+    <row r="26" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
@@ -1921,11 +1924,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="46">
+    <row r="27" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="52">
         <v>7</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="46" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="26"/>
@@ -1938,9 +1941,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="47"/>
-      <c r="C28" s="49"/>
+    <row r="28" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
@@ -1951,11 +1954,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="46">
+    <row r="29" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="52">
         <v>8</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="26"/>
@@ -1968,9 +1971,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="47"/>
-      <c r="C30" s="49"/>
+    <row r="30" spans="2:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="53"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="43"/>
@@ -1981,7 +1984,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="D31" s="3" t="s">
         <v>10</v>
@@ -1991,11 +1994,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="62" t="s">
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="13">
@@ -2019,9 +2022,9 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="25" t="s">
         <v>17</v>
       </c>
@@ -2038,8 +2041,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="64"/>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="58"/>
       <c r="C34" s="27" t="s">
         <v>9</v>
       </c>
@@ -2064,12 +2067,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="66"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="14" t="s">
         <v>48</v>
       </c>
@@ -2086,12 +2089,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
-      <c r="B36" s="56">
+      <c r="B36" s="48">
         <v>1</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="30" t="s">
@@ -2110,10 +2113,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="67"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="31" t="s">
         <v>56</v>
       </c>
@@ -2130,12 +2133,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
-      <c r="B38" s="56">
+      <c r="B38" s="48">
         <v>2</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="30" t="s">
@@ -2154,10 +2157,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="67"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="31" t="s">
         <v>56</v>
       </c>
@@ -2174,12 +2177,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
-      <c r="B40" s="56">
+      <c r="B40" s="48">
         <v>3</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="30" t="s">
@@ -2198,10 +2201,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="67"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="31" t="s">
         <v>56</v>
       </c>
@@ -2218,44 +2221,44 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="48" t="s">
+      <c r="B42" s="48"/>
+      <c r="C42" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="58" t="s">
+      <c r="F42" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="58" t="s">
+      <c r="H42" s="50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="49"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
-      <c r="B44" s="46">
+      <c r="B44" s="52">
         <v>4</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="30" t="s">
@@ -2274,10 +2277,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="67"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="31" t="s">
         <v>56</v>
       </c>
@@ -2294,12 +2297,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
-      <c r="B46" s="46">
+      <c r="B46" s="52">
         <v>5</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="30" t="s">
@@ -2318,10 +2321,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="67"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="31" t="s">
         <v>56</v>
       </c>
@@ -2338,12 +2341,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
-      <c r="B48" s="46">
+      <c r="B48" s="52">
         <v>6</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="30" t="s">
@@ -2362,10 +2365,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="31" t="s">
         <v>56</v>
       </c>
@@ -2382,12 +2385,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
-      <c r="B50" s="46">
+      <c r="B50" s="52">
         <v>7</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="30" t="s">
@@ -2406,10 +2409,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="67"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="31" t="s">
         <v>56</v>
       </c>
@@ -2426,11 +2429,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="46">
+    <row r="52" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="52">
         <v>8</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -2449,9 +2452,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="47"/>
-      <c r="C53" s="49"/>
+    <row r="53" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="53"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="31" t="s">
         <v>56</v>
       </c>
@@ -2468,15 +2471,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="62" t="s">
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="13">
@@ -2500,9 +2503,9 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="57"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="25" t="s">
         <v>17</v>
       </c>
@@ -2519,8 +2522,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="64"/>
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="58"/>
       <c r="C57" s="27" t="s">
         <v>9</v>
       </c>
@@ -2545,12 +2548,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="66"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="14" t="s">
         <v>48</v>
       </c>
@@ -2567,12 +2570,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
-      <c r="B59" s="56">
+      <c r="B59" s="48">
         <v>1</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="30" t="s">
@@ -2591,10 +2594,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="31" t="s">
         <v>59</v>
       </c>
@@ -2611,12 +2614,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
-      <c r="B61" s="56">
+      <c r="B61" s="48">
         <v>2</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="30" t="s">
@@ -2635,10 +2638,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="49"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="31" t="s">
         <v>59</v>
       </c>
@@ -2655,12 +2658,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
-      <c r="B63" s="56">
+      <c r="B63" s="48">
         <v>3</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="30" t="s">
@@ -2679,10 +2682,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="49"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="31" t="s">
         <v>59</v>
       </c>
@@ -2699,44 +2702,44 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="48" t="s">
+      <c r="B65" s="48"/>
+      <c r="C65" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E65" s="58" t="s">
+      <c r="E65" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="58" t="s">
+      <c r="F65" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="58" t="s">
+      <c r="G65" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H65" s="58" t="s">
+      <c r="H65" s="50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-    </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B66" s="49"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+    </row>
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
-      <c r="B67" s="46">
+      <c r="B67" s="52">
         <v>4</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="30" t="s">
@@ -2755,10 +2758,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="31" t="s">
         <v>59</v>
       </c>
@@ -2775,12 +2778,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12"/>
-      <c r="B69" s="46">
+      <c r="B69" s="52">
         <v>5</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="30" t="s">
@@ -2799,10 +2802,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="49"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="31" t="s">
         <v>59</v>
       </c>
@@ -2819,12 +2822,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
-      <c r="B71" s="46">
+      <c r="B71" s="52">
         <v>6</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="30" t="s">
@@ -2843,10 +2846,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="49"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="31" t="s">
         <v>59</v>
       </c>
@@ -2863,12 +2866,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12"/>
-      <c r="B73" s="46">
+      <c r="B73" s="52">
         <v>7</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="30" t="s">
@@ -2887,10 +2890,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="49"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="31" t="s">
         <v>59</v>
       </c>
@@ -2907,11 +2910,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B75" s="46">
+    <row r="75" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="52">
         <v>8</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D75" s="30" t="s">
@@ -2930,9 +2933,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="47"/>
-      <c r="C76" s="49"/>
+    <row r="76" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="53"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="31" t="s">
         <v>59</v>
       </c>
@@ -2949,12 +2952,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B78" s="62" t="s">
+    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D78" s="13">
@@ -2978,9 +2981,9 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B79" s="63"/>
-      <c r="C79" s="64"/>
+    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="25" t="s">
         <v>17</v>
       </c>
@@ -2997,8 +3000,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B80" s="64"/>
+    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="58"/>
       <c r="C80" s="27" t="s">
         <v>9</v>
       </c>
@@ -3013,12 +3016,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="66"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
@@ -3029,12 +3032,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12"/>
-      <c r="B82" s="56">
+      <c r="B82" s="48">
         <v>1</v>
       </c>
-      <c r="C82" s="48" t="s">
+      <c r="C82" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="26"/>
@@ -3047,10 +3050,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="49"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="43"/>
@@ -3061,12 +3064,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12"/>
-      <c r="B84" s="56">
+      <c r="B84" s="48">
         <v>2</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="26"/>
@@ -3079,10 +3082,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="43"/>
@@ -3093,12 +3096,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
-      <c r="B86" s="56">
+      <c r="B86" s="48">
         <v>3</v>
       </c>
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="26"/>
@@ -3111,10 +3114,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="49"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
@@ -3125,40 +3128,40 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="48" t="s">
+      <c r="B88" s="48"/>
+      <c r="C88" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="51"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="58" t="s">
+      <c r="E88" s="78"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H88" s="58" t="s">
+      <c r="H88" s="50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-    </row>
-    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B89" s="49"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+    </row>
+    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
-      <c r="B90" s="46">
+      <c r="B90" s="52">
         <v>4</v>
       </c>
-      <c r="C90" s="48" t="s">
+      <c r="C90" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D90" s="26"/>
@@ -3171,10 +3174,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="49"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="43"/>
@@ -3185,12 +3188,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12"/>
-      <c r="B92" s="46">
+      <c r="B92" s="52">
         <v>5</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="26"/>
@@ -3203,10 +3206,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="49"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
@@ -3217,12 +3220,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12"/>
-      <c r="B94" s="46">
+      <c r="B94" s="52">
         <v>6</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D94" s="26"/>
@@ -3235,10 +3238,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="49"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="43"/>
@@ -3249,12 +3252,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12"/>
-      <c r="B96" s="46">
+      <c r="B96" s="52">
         <v>7</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D96" s="26"/>
@@ -3267,10 +3270,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="49"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="43"/>
@@ -3281,11 +3284,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B98" s="46">
+    <row r="98" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="52">
         <v>8</v>
       </c>
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D98" s="26"/>
@@ -3298,9 +3301,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B99" s="47"/>
-      <c r="C99" s="49"/>
+    <row r="99" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="53"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="43"/>
@@ -3311,12 +3314,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B101" s="62" t="s">
+    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C101" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D101" s="13">
@@ -3340,9 +3343,9 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B102" s="63"/>
-      <c r="C102" s="64"/>
+    <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="57"/>
+      <c r="C102" s="58"/>
       <c r="D102" s="25" t="s">
         <v>17</v>
       </c>
@@ -3359,8 +3362,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B103" s="64"/>
+    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="58"/>
       <c r="C103" s="33" t="s">
         <v>9</v>
       </c>
@@ -3385,12 +3388,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12"/>
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C104" s="66"/>
+      <c r="C104" s="60"/>
       <c r="D104" s="14" t="s">
         <v>48</v>
       </c>
@@ -3407,12 +3410,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12"/>
-      <c r="B105" s="56">
+      <c r="B105" s="48">
         <v>1</v>
       </c>
-      <c r="C105" s="48" t="s">
+      <c r="C105" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D105" s="30" t="s">
@@ -3431,10 +3434,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="49"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="31" t="s">
         <v>62</v>
       </c>
@@ -3451,12 +3454,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12"/>
-      <c r="B107" s="56">
+      <c r="B107" s="48">
         <v>2</v>
       </c>
-      <c r="C107" s="48" t="s">
+      <c r="C107" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="30" t="s">
@@ -3475,10 +3478,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="49"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="31" t="s">
         <v>62</v>
       </c>
@@ -3495,12 +3498,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12"/>
-      <c r="B109" s="56">
+      <c r="B109" s="48">
         <v>3</v>
       </c>
-      <c r="C109" s="48" t="s">
+      <c r="C109" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="30" t="s">
@@ -3519,10 +3522,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="49"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="31" t="s">
         <v>62</v>
       </c>
@@ -3539,44 +3542,44 @@
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="48" t="s">
+      <c r="B111" s="48"/>
+      <c r="C111" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D111" s="58" t="s">
+      <c r="D111" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E111" s="58" t="s">
+      <c r="E111" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F111" s="58" t="s">
+      <c r="F111" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G111" s="58" t="s">
+      <c r="G111" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H111" s="58" t="s">
+      <c r="H111" s="50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
-    </row>
-    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B112" s="49"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+    </row>
+    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12"/>
-      <c r="B113" s="46">
+      <c r="B113" s="52">
         <v>4</v>
       </c>
-      <c r="C113" s="48" t="s">
+      <c r="C113" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D113" s="30" t="s">
@@ -3595,10 +3598,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12"/>
-      <c r="B114" s="47"/>
-      <c r="C114" s="49"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="31" t="s">
         <v>62</v>
       </c>
@@ -3615,12 +3618,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12"/>
-      <c r="B115" s="46">
+      <c r="B115" s="52">
         <v>5</v>
       </c>
-      <c r="C115" s="48" t="s">
+      <c r="C115" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D115" s="30" t="s">
@@ -3639,10 +3642,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="49"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="31" t="s">
         <v>62</v>
       </c>
@@ -3659,12 +3662,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12"/>
-      <c r="B117" s="46">
+      <c r="B117" s="52">
         <v>6</v>
       </c>
-      <c r="C117" s="48" t="s">
+      <c r="C117" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D117" s="30" t="s">
@@ -3683,10 +3686,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12"/>
-      <c r="B118" s="47"/>
-      <c r="C118" s="49"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="47"/>
       <c r="D118" s="31" t="s">
         <v>62</v>
       </c>
@@ -3703,12 +3706,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="119" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12"/>
-      <c r="B119" s="46">
+      <c r="B119" s="52">
         <v>7</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D119" s="30" t="s">
@@ -3727,10 +3730,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12"/>
-      <c r="B120" s="47"/>
-      <c r="C120" s="49"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="47"/>
       <c r="D120" s="31" t="s">
         <v>62</v>
       </c>
@@ -3747,11 +3750,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B121" s="46">
+    <row r="121" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="52">
         <v>8</v>
       </c>
-      <c r="C121" s="48" t="s">
+      <c r="C121" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D121" s="30" t="s">
@@ -3770,9 +3773,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B122" s="47"/>
-      <c r="C122" s="49"/>
+    <row r="122" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="53"/>
+      <c r="C122" s="47"/>
       <c r="D122" s="31" t="s">
         <v>62</v>
       </c>
@@ -3789,12 +3792,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B124" s="62" t="s">
+    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="62" t="s">
+      <c r="C124" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D124" s="13">
@@ -3818,9 +3821,9 @@
         <v>44477</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B125" s="63"/>
-      <c r="C125" s="64"/>
+    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="57"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="25" t="s">
         <v>17</v>
       </c>
@@ -3837,8 +3840,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B126" s="64"/>
+    <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="58"/>
       <c r="C126" s="35" t="s">
         <v>9</v>
       </c>
@@ -3859,12 +3862,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12"/>
-      <c r="B127" s="65" t="s">
+      <c r="B127" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C127" s="66"/>
+      <c r="C127" s="60"/>
       <c r="D127" s="14"/>
       <c r="E127" s="14" t="s">
         <v>48</v>
@@ -3879,12 +3882,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12"/>
-      <c r="B128" s="56">
+      <c r="B128" s="48">
         <v>1</v>
       </c>
-      <c r="C128" s="48" t="s">
+      <c r="C128" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D128" s="26"/>
@@ -3901,10 +3904,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="49"/>
+      <c r="B129" s="49"/>
+      <c r="C129" s="47"/>
       <c r="D129" s="43"/>
       <c r="E129" s="31" t="s">
         <v>62</v>
@@ -3919,12 +3922,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="130" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12"/>
-      <c r="B130" s="56">
+      <c r="B130" s="48">
         <v>2</v>
       </c>
-      <c r="C130" s="48" t="s">
+      <c r="C130" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="26"/>
@@ -3941,10 +3944,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="131" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="49"/>
+      <c r="B131" s="49"/>
+      <c r="C131" s="47"/>
       <c r="D131" s="43"/>
       <c r="E131" s="31" t="s">
         <v>62</v>
@@ -3959,12 +3962,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12"/>
-      <c r="B132" s="56">
+      <c r="B132" s="48">
         <v>3</v>
       </c>
-      <c r="C132" s="48" t="s">
+      <c r="C132" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="26"/>
@@ -3981,10 +3984,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="49"/>
+      <c r="B133" s="49"/>
+      <c r="C133" s="47"/>
       <c r="D133" s="43"/>
       <c r="E133" s="31" t="s">
         <v>62</v>
@@ -3999,44 +4002,44 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="48" t="s">
+      <c r="B134" s="48"/>
+      <c r="C134" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D134" s="60" t="s">
+      <c r="D134" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E134" s="58" t="s">
+      <c r="E134" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F134" s="58" t="s">
+      <c r="F134" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G134" s="58" t="s">
+      <c r="G134" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H134" s="58" t="s">
+      <c r="H134" s="50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="135" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="61"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="59"/>
-      <c r="H135" s="59"/>
-    </row>
-    <row r="136" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B135" s="49"/>
+      <c r="C135" s="47"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="51"/>
+      <c r="F135" s="51"/>
+      <c r="G135" s="51"/>
+      <c r="H135" s="51"/>
+    </row>
+    <row r="136" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12"/>
-      <c r="B136" s="46">
+      <c r="B136" s="52">
         <v>4</v>
       </c>
-      <c r="C136" s="48" t="s">
+      <c r="C136" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D136" s="26"/>
@@ -4053,10 +4056,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="137" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12"/>
-      <c r="B137" s="47"/>
-      <c r="C137" s="49"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="47"/>
       <c r="D137" s="43"/>
       <c r="E137" s="31" t="s">
         <v>62</v>
@@ -4071,12 +4074,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="138" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12"/>
-      <c r="B138" s="46">
+      <c r="B138" s="52">
         <v>5</v>
       </c>
-      <c r="C138" s="48" t="s">
+      <c r="C138" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D138" s="26"/>
@@ -4093,10 +4096,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="139" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12"/>
-      <c r="B139" s="47"/>
-      <c r="C139" s="49"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="47"/>
       <c r="D139" s="43"/>
       <c r="E139" s="31" t="s">
         <v>62</v>
@@ -4111,12 +4114,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="140" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12"/>
-      <c r="B140" s="46">
+      <c r="B140" s="52">
         <v>6</v>
       </c>
-      <c r="C140" s="48" t="s">
+      <c r="C140" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D140" s="26"/>
@@ -4133,10 +4136,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
-      <c r="B141" s="47"/>
-      <c r="C141" s="49"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="47"/>
       <c r="D141" s="43"/>
       <c r="E141" s="29" t="s">
         <v>62</v>
@@ -4151,12 +4154,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12"/>
-      <c r="B142" s="46">
+      <c r="B142" s="52">
         <v>7</v>
       </c>
-      <c r="C142" s="48" t="s">
+      <c r="C142" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D142" s="26"/>
@@ -4173,10 +4176,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12"/>
-      <c r="B143" s="47"/>
-      <c r="C143" s="49"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="47"/>
       <c r="D143" s="43"/>
       <c r="E143" s="39" t="s">
         <v>64</v>
@@ -4191,11 +4194,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="46">
+    <row r="144" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="52">
         <v>8</v>
       </c>
-      <c r="C144" s="48" t="s">
+      <c r="C144" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D144" s="26"/>
@@ -4212,9 +4215,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="47"/>
-      <c r="C145" s="49"/>
+    <row r="145" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="53"/>
+      <c r="C145" s="47"/>
       <c r="D145" s="43"/>
       <c r="E145" s="39" t="s">
         <v>64</v>
@@ -4229,18 +4232,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="146" spans="1:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D146" s="37"/>
       <c r="E146" s="37"/>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
       <c r="H146" s="37"/>
     </row>
-    <row r="147" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="62" t="s">
+    <row r="147" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C147" s="62" t="s">
+      <c r="C147" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D147" s="13">
@@ -4264,9 +4267,9 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B148" s="63"/>
-      <c r="C148" s="64"/>
+    <row r="148" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="57"/>
+      <c r="C148" s="58"/>
       <c r="D148" s="25" t="s">
         <v>17</v>
       </c>
@@ -4283,8 +4286,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="64"/>
+    <row r="149" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="58"/>
       <c r="C149" s="35" t="s">
         <v>9</v>
       </c>
@@ -4305,12 +4308,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="150" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12"/>
-      <c r="B150" s="65" t="s">
+      <c r="B150" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C150" s="66"/>
+      <c r="C150" s="60"/>
       <c r="D150" s="14"/>
       <c r="E150" s="14" t="s">
         <v>48</v>
@@ -4325,12 +4328,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="151" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12"/>
-      <c r="B151" s="56">
+      <c r="B151" s="48">
         <v>1</v>
       </c>
-      <c r="C151" s="48" t="s">
+      <c r="C151" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D151" s="26"/>
@@ -4347,10 +4350,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="152" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12"/>
-      <c r="B152" s="57"/>
-      <c r="C152" s="49"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="47"/>
       <c r="D152" s="43"/>
       <c r="E152" s="31" t="s">
         <v>66</v>
@@ -4365,12 +4368,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="153" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12"/>
-      <c r="B153" s="56">
+      <c r="B153" s="48">
         <v>2</v>
       </c>
-      <c r="C153" s="48" t="s">
+      <c r="C153" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="26"/>
@@ -4387,10 +4390,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="154" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12"/>
-      <c r="B154" s="57"/>
-      <c r="C154" s="49"/>
+      <c r="B154" s="49"/>
+      <c r="C154" s="47"/>
       <c r="D154" s="43"/>
       <c r="E154" s="31" t="s">
         <v>66</v>
@@ -4405,12 +4408,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="155" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12"/>
-      <c r="B155" s="56">
+      <c r="B155" s="48">
         <v>3</v>
       </c>
-      <c r="C155" s="48" t="s">
+      <c r="C155" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="26"/>
@@ -4427,10 +4430,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="156" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="49"/>
+      <c r="B156" s="49"/>
+      <c r="C156" s="47"/>
       <c r="D156" s="43"/>
       <c r="E156" s="31" t="s">
         <v>66</v>
@@ -4445,44 +4448,44 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="157" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12"/>
-      <c r="B157" s="56"/>
-      <c r="C157" s="48" t="s">
+      <c r="B157" s="48"/>
+      <c r="C157" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D157" s="60" t="s">
+      <c r="D157" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E157" s="58" t="s">
+      <c r="E157" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F157" s="58" t="s">
+      <c r="F157" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G157" s="58" t="s">
+      <c r="G157" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H157" s="58" t="s">
+      <c r="H157" s="50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="158" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12"/>
-      <c r="B158" s="57"/>
-      <c r="C158" s="49"/>
-      <c r="D158" s="61"/>
-      <c r="E158" s="59"/>
-      <c r="F158" s="59"/>
-      <c r="G158" s="59"/>
-      <c r="H158" s="59"/>
-    </row>
-    <row r="159" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B158" s="49"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="51"/>
+      <c r="F158" s="51"/>
+      <c r="G158" s="51"/>
+      <c r="H158" s="51"/>
+    </row>
+    <row r="159" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12"/>
-      <c r="B159" s="46">
+      <c r="B159" s="52">
         <v>4</v>
       </c>
-      <c r="C159" s="48" t="s">
+      <c r="C159" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D159" s="26"/>
@@ -4499,10 +4502,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="160" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12"/>
-      <c r="B160" s="47"/>
-      <c r="C160" s="49"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="47"/>
       <c r="D160" s="43"/>
       <c r="E160" s="31" t="s">
         <v>66</v>
@@ -4517,12 +4520,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="161" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12"/>
-      <c r="B161" s="46">
+      <c r="B161" s="52">
         <v>5</v>
       </c>
-      <c r="C161" s="48" t="s">
+      <c r="C161" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D161" s="26"/>
@@ -4539,10 +4542,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="162" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12"/>
-      <c r="B162" s="47"/>
-      <c r="C162" s="49"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="47"/>
       <c r="D162" s="43"/>
       <c r="E162" s="31" t="s">
         <v>66</v>
@@ -4557,12 +4560,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12"/>
-      <c r="B163" s="46">
+      <c r="B163" s="52">
         <v>6</v>
       </c>
-      <c r="C163" s="48" t="s">
+      <c r="C163" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D163" s="26"/>
@@ -4579,10 +4582,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12"/>
-      <c r="B164" s="47"/>
-      <c r="C164" s="49"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="47"/>
       <c r="D164" s="43"/>
       <c r="E164" s="31" t="s">
         <v>66</v>
@@ -4597,12 +4600,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12"/>
-      <c r="B165" s="46">
+      <c r="B165" s="52">
         <v>7</v>
       </c>
-      <c r="C165" s="48" t="s">
+      <c r="C165" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D165" s="26"/>
@@ -4619,10 +4622,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12"/>
-      <c r="B166" s="47"/>
-      <c r="C166" s="49"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="47"/>
       <c r="D166" s="43"/>
       <c r="E166" s="31" t="s">
         <v>66</v>
@@ -4637,11 +4640,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B167" s="46">
+    <row r="167" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="52">
         <v>8</v>
       </c>
-      <c r="C167" s="48" t="s">
+      <c r="C167" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D167" s="26"/>
@@ -4658,9 +4661,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B168" s="47"/>
-      <c r="C168" s="49"/>
+    <row r="168" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="53"/>
+      <c r="C168" s="47"/>
       <c r="D168" s="43"/>
       <c r="E168" s="31" t="s">
         <v>66</v>
@@ -4675,18 +4678,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="169" spans="1:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D169" s="37"/>
       <c r="E169" s="37"/>
       <c r="F169" s="37"/>
       <c r="G169" s="37"/>
       <c r="H169" s="37"/>
     </row>
-    <row r="170" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B170" s="62" t="s">
+    <row r="170" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C170" s="62" t="s">
+      <c r="C170" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D170" s="13">
@@ -4710,9 +4713,9 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B171" s="63"/>
-      <c r="C171" s="64"/>
+    <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="57"/>
+      <c r="C171" s="58"/>
       <c r="D171" s="25" t="s">
         <v>17</v>
       </c>
@@ -4729,8 +4732,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B172" s="64"/>
+    <row r="172" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="58"/>
       <c r="C172" s="35" t="s">
         <v>9</v>
       </c>
@@ -4755,12 +4758,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="173" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="12"/>
-      <c r="B173" s="65" t="s">
+      <c r="B173" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C173" s="66"/>
+      <c r="C173" s="60"/>
       <c r="D173" s="14" t="s">
         <v>48</v>
       </c>
@@ -4777,12 +4780,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="12"/>
-      <c r="B174" s="56">
+      <c r="B174" s="48">
         <v>1</v>
       </c>
-      <c r="C174" s="48" t="s">
+      <c r="C174" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D174" s="30" t="s">
@@ -4801,10 +4804,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="12"/>
-      <c r="B175" s="57"/>
-      <c r="C175" s="49"/>
+      <c r="B175" s="49"/>
+      <c r="C175" s="47"/>
       <c r="D175" s="44" t="s">
         <v>69</v>
       </c>
@@ -4821,12 +4824,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="176" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="12"/>
-      <c r="B176" s="56">
+      <c r="B176" s="48">
         <v>2</v>
       </c>
-      <c r="C176" s="48" t="s">
+      <c r="C176" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D176" s="30" t="s">
@@ -4845,10 +4848,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="177" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12"/>
-      <c r="B177" s="57"/>
-      <c r="C177" s="49"/>
+      <c r="B177" s="49"/>
+      <c r="C177" s="47"/>
       <c r="D177" s="44" t="s">
         <v>69</v>
       </c>
@@ -4865,12 +4868,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="12"/>
-      <c r="B178" s="56">
+      <c r="B178" s="48">
         <v>3</v>
       </c>
-      <c r="C178" s="48" t="s">
+      <c r="C178" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D178" s="30" t="s">
@@ -4889,10 +4892,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="179" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12"/>
-      <c r="B179" s="57"/>
-      <c r="C179" s="49"/>
+      <c r="B179" s="49"/>
+      <c r="C179" s="47"/>
       <c r="D179" s="44" t="s">
         <v>69</v>
       </c>
@@ -4909,44 +4912,44 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="180" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12"/>
-      <c r="B180" s="56"/>
-      <c r="C180" s="48" t="s">
+      <c r="B180" s="48"/>
+      <c r="C180" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D180" s="58" t="s">
+      <c r="D180" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E180" s="58" t="s">
+      <c r="E180" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F180" s="58" t="s">
+      <c r="F180" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G180" s="58" t="s">
+      <c r="G180" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H180" s="58" t="s">
+      <c r="H180" s="50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="181" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12"/>
-      <c r="B181" s="57"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="59"/>
-      <c r="H181" s="59"/>
-    </row>
-    <row r="182" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B181" s="49"/>
+      <c r="C181" s="47"/>
+      <c r="D181" s="51"/>
+      <c r="E181" s="51"/>
+      <c r="F181" s="51"/>
+      <c r="G181" s="51"/>
+      <c r="H181" s="51"/>
+    </row>
+    <row r="182" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12"/>
-      <c r="B182" s="46">
+      <c r="B182" s="52">
         <v>4</v>
       </c>
-      <c r="C182" s="48" t="s">
+      <c r="C182" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D182" s="30" t="s">
@@ -4965,10 +4968,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="183" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12"/>
-      <c r="B183" s="47"/>
-      <c r="C183" s="49"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="47"/>
       <c r="D183" s="44" t="s">
         <v>69</v>
       </c>
@@ -4985,12 +4988,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="184" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="12"/>
-      <c r="B184" s="46">
+      <c r="B184" s="52">
         <v>5</v>
       </c>
-      <c r="C184" s="48" t="s">
+      <c r="C184" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D184" s="30" t="s">
@@ -5009,10 +5012,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="185" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="12"/>
-      <c r="B185" s="47"/>
-      <c r="C185" s="49"/>
+      <c r="B185" s="53"/>
+      <c r="C185" s="47"/>
       <c r="D185" s="44" t="s">
         <v>69</v>
       </c>
@@ -5029,12 +5032,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="186" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12"/>
-      <c r="B186" s="46">
+      <c r="B186" s="52">
         <v>6</v>
       </c>
-      <c r="C186" s="48" t="s">
+      <c r="C186" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D186" s="30" t="s">
@@ -5053,10 +5056,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="187" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12"/>
-      <c r="B187" s="47"/>
-      <c r="C187" s="49"/>
+      <c r="B187" s="53"/>
+      <c r="C187" s="47"/>
       <c r="D187" s="44" t="s">
         <v>69</v>
       </c>
@@ -5073,12 +5076,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="188" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12"/>
-      <c r="B188" s="46">
+      <c r="B188" s="52">
         <v>7</v>
       </c>
-      <c r="C188" s="48" t="s">
+      <c r="C188" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D188" s="30" t="s">
@@ -5097,10 +5100,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="189" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12"/>
-      <c r="B189" s="47"/>
-      <c r="C189" s="49"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="47"/>
       <c r="D189" s="44" t="s">
         <v>69</v>
       </c>
@@ -5117,11 +5120,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B190" s="46">
+    <row r="190" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="52">
         <v>8</v>
       </c>
-      <c r="C190" s="48" t="s">
+      <c r="C190" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D190" s="30" t="s">
@@ -5140,9 +5143,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B191" s="47"/>
-      <c r="C191" s="49"/>
+    <row r="191" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="53"/>
+      <c r="C191" s="47"/>
       <c r="D191" s="44" t="s">
         <v>69</v>
       </c>
@@ -5159,18 +5162,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="192" spans="1:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D192" s="37"/>
       <c r="E192" s="37"/>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
       <c r="H192" s="37"/>
     </row>
-    <row r="193" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B193" s="62" t="s">
+    <row r="193" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C193" s="62" t="s">
+      <c r="C193" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D193" s="13">
@@ -5188,9 +5191,9 @@
       <c r="G193" s="13"/>
       <c r="H193" s="13"/>
     </row>
-    <row r="194" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B194" s="63"/>
-      <c r="C194" s="64"/>
+    <row r="194" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="57"/>
+      <c r="C194" s="58"/>
       <c r="D194" s="25" t="s">
         <v>17</v>
       </c>
@@ -5203,8 +5206,8 @@
       <c r="G194" s="25"/>
       <c r="H194" s="25"/>
     </row>
-    <row r="195" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="B195" s="64"/>
+    <row r="195" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="58"/>
       <c r="C195" s="42" t="s">
         <v>9</v>
       </c>
@@ -5223,12 +5226,12 @@
       <c r="G195" s="14"/>
       <c r="H195" s="14"/>
     </row>
-    <row r="196" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="196" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12"/>
-      <c r="B196" s="65" t="s">
+      <c r="B196" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C196" s="66"/>
+      <c r="C196" s="60"/>
       <c r="D196" s="14" t="s">
         <v>48</v>
       </c>
@@ -5241,12 +5244,12 @@
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
     </row>
-    <row r="197" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="197" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12"/>
-      <c r="B197" s="56">
+      <c r="B197" s="48">
         <v>1</v>
       </c>
-      <c r="C197" s="48" t="s">
+      <c r="C197" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D197" s="30" t="s">
@@ -5261,10 +5264,10 @@
       <c r="G197" s="26"/>
       <c r="H197" s="26"/>
     </row>
-    <row r="198" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="198" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12"/>
-      <c r="B198" s="57"/>
-      <c r="C198" s="49"/>
+      <c r="B198" s="49"/>
+      <c r="C198" s="47"/>
       <c r="D198" s="44" t="s">
         <v>69</v>
       </c>
@@ -5277,12 +5280,12 @@
       <c r="G198" s="43"/>
       <c r="H198" s="43"/>
     </row>
-    <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12"/>
-      <c r="B199" s="56">
+      <c r="B199" s="48">
         <v>2</v>
       </c>
-      <c r="C199" s="48" t="s">
+      <c r="C199" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="30" t="s">
@@ -5297,10 +5300,10 @@
       <c r="G199" s="26"/>
       <c r="H199" s="26"/>
     </row>
-    <row r="200" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="200" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12"/>
-      <c r="B200" s="57"/>
-      <c r="C200" s="49"/>
+      <c r="B200" s="49"/>
+      <c r="C200" s="47"/>
       <c r="D200" s="44" t="s">
         <v>69</v>
       </c>
@@ -5313,12 +5316,12 @@
       <c r="G200" s="43"/>
       <c r="H200" s="43"/>
     </row>
-    <row r="201" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="201" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="12"/>
-      <c r="B201" s="56">
+      <c r="B201" s="48">
         <v>3</v>
       </c>
-      <c r="C201" s="48" t="s">
+      <c r="C201" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D201" s="30" t="s">
@@ -5333,10 +5336,10 @@
       <c r="G201" s="26"/>
       <c r="H201" s="26"/>
     </row>
-    <row r="202" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="202" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12"/>
-      <c r="B202" s="57"/>
-      <c r="C202" s="49"/>
+      <c r="B202" s="49"/>
+      <c r="C202" s="47"/>
       <c r="D202" s="44" t="s">
         <v>69</v>
       </c>
@@ -5349,40 +5352,40 @@
       <c r="G202" s="43"/>
       <c r="H202" s="43"/>
     </row>
-    <row r="203" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="203" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="12"/>
-      <c r="B203" s="56"/>
-      <c r="C203" s="48" t="s">
+      <c r="B203" s="48"/>
+      <c r="C203" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="58" t="s">
+      <c r="D203" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E203" s="58" t="s">
+      <c r="E203" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F203" s="58" t="s">
+      <c r="F203" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G203" s="60"/>
-      <c r="H203" s="60"/>
-    </row>
-    <row r="204" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="G203" s="54"/>
+      <c r="H203" s="54"/>
+    </row>
+    <row r="204" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12"/>
-      <c r="B204" s="57"/>
-      <c r="C204" s="49"/>
-      <c r="D204" s="59"/>
-      <c r="E204" s="59"/>
-      <c r="F204" s="59"/>
-      <c r="G204" s="61"/>
-      <c r="H204" s="61"/>
-    </row>
-    <row r="205" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B204" s="49"/>
+      <c r="C204" s="47"/>
+      <c r="D204" s="51"/>
+      <c r="E204" s="51"/>
+      <c r="F204" s="51"/>
+      <c r="G204" s="55"/>
+      <c r="H204" s="55"/>
+    </row>
+    <row r="205" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12"/>
-      <c r="B205" s="46">
+      <c r="B205" s="52">
         <v>4</v>
       </c>
-      <c r="C205" s="48" t="s">
+      <c r="C205" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D205" s="30" t="s">
@@ -5397,10 +5400,10 @@
       <c r="G205" s="26"/>
       <c r="H205" s="26"/>
     </row>
-    <row r="206" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="206" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12"/>
-      <c r="B206" s="47"/>
-      <c r="C206" s="49"/>
+      <c r="B206" s="53"/>
+      <c r="C206" s="47"/>
       <c r="D206" s="44" t="s">
         <v>69</v>
       </c>
@@ -5413,12 +5416,12 @@
       <c r="G206" s="43"/>
       <c r="H206" s="43"/>
     </row>
-    <row r="207" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="207" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12"/>
-      <c r="B207" s="46">
+      <c r="B207" s="52">
         <v>5</v>
       </c>
-      <c r="C207" s="48" t="s">
+      <c r="C207" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D207" s="30" t="s">
@@ -5433,10 +5436,10 @@
       <c r="G207" s="26"/>
       <c r="H207" s="26"/>
     </row>
-    <row r="208" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="208" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12"/>
-      <c r="B208" s="47"/>
-      <c r="C208" s="49"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="47"/>
       <c r="D208" s="44" t="s">
         <v>69</v>
       </c>
@@ -5449,12 +5452,12 @@
       <c r="G208" s="43"/>
       <c r="H208" s="43"/>
     </row>
-    <row r="209" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="209" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12"/>
-      <c r="B209" s="46">
+      <c r="B209" s="52">
         <v>6</v>
       </c>
-      <c r="C209" s="48" t="s">
+      <c r="C209" s="46" t="s">
         <v>34</v>
       </c>
       <c r="D209" s="30" t="s">
@@ -5469,10 +5472,10 @@
       <c r="G209" s="26"/>
       <c r="H209" s="26"/>
     </row>
-    <row r="210" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="210" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12"/>
-      <c r="B210" s="47"/>
-      <c r="C210" s="49"/>
+      <c r="B210" s="53"/>
+      <c r="C210" s="47"/>
       <c r="D210" s="44" t="s">
         <v>69</v>
       </c>
@@ -5485,12 +5488,12 @@
       <c r="G210" s="43"/>
       <c r="H210" s="43"/>
     </row>
-    <row r="211" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="211" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12"/>
-      <c r="B211" s="46">
+      <c r="B211" s="52">
         <v>7</v>
       </c>
-      <c r="C211" s="48" t="s">
+      <c r="C211" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D211" s="30" t="s">
@@ -5505,10 +5508,10 @@
       <c r="G211" s="26"/>
       <c r="H211" s="26"/>
     </row>
-    <row r="212" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="212" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12"/>
-      <c r="B212" s="47"/>
-      <c r="C212" s="49"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="47"/>
       <c r="D212" s="44" t="s">
         <v>69</v>
       </c>
@@ -5521,11 +5524,11 @@
       <c r="G212" s="43"/>
       <c r="H212" s="43"/>
     </row>
-    <row r="213" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B213" s="46">
+    <row r="213" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="52">
         <v>8</v>
       </c>
-      <c r="C213" s="48" t="s">
+      <c r="C213" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D213" s="30" t="s">
@@ -5540,9 +5543,9 @@
       <c r="G213" s="26"/>
       <c r="H213" s="26"/>
     </row>
-    <row r="214" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B214" s="47"/>
-      <c r="C214" s="49"/>
+    <row r="214" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="53"/>
+      <c r="C214" s="47"/>
       <c r="D214" s="44" t="s">
         <v>69</v>
       </c>
@@ -5555,7 +5558,7 @@
       <c r="G214" s="43"/>
       <c r="H214" s="43"/>
     </row>
-    <row r="215" spans="1:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="215" spans="1:8" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D215" s="37"/>
       <c r="E215" s="37"/>
       <c r="F215" s="37"/>
@@ -5565,22 +5568,199 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="241">
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="G180:G181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="C96:C97"/>
@@ -5605,207 +5785,30 @@
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="G65:G66"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="G180:G181"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5828,7 +5831,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -5840,7 +5843,7 @@
     <col min="9" max="9" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="37.5">
+    <row r="2" spans="2:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B2" s="83" t="s">
         <v>35</v>
       </c>
@@ -5851,7 +5854,7 @@
       <c r="G2" s="83"/>
       <c r="H2" s="83"/>
     </row>
-    <row r="4" spans="2:8" ht="24.75" customHeight="1">
+    <row r="4" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
@@ -5868,7 +5871,7 @@
       </c>
       <c r="H4" s="84"/>
     </row>
-    <row r="5" spans="2:8" ht="46.5" customHeight="1">
+    <row r="5" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>73</v>
       </c>
@@ -5885,7 +5888,7 @@
       </c>
       <c r="H5" s="85"/>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
         <v>54</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="32" t="s">
         <v>57</v>
       </c>
@@ -5950,7 +5953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>60</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
         <v>60</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
         <v>67</v>
       </c>
